--- a/Main_Template/testFile.xlsx
+++ b/Main_Template/testFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenCampagnola\source\repos\FTR_Directory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BenCampagnola\repos\FTR_Templates\Main_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927C29F-59BC-4C4B-BF9B-46C73ED945B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAF30ED-4760-4624-AFDD-B9E2A5523BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{78C63DC1-BA12-41EB-909B-1FEB1ABEBE13}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>Courtroom 1</t>
   </si>
@@ -126,189 +127,9 @@
     <t>555-8675323</t>
   </si>
   <si>
-    <t>Processor=192.168.1.201</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.202</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.203</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.204</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.205</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.206</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.207</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.208</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.209</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.210</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.211</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.212</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.213</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.214</t>
-  </si>
-  <si>
-    <t>Processor=192.168.1.215</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.151</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.152</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.153</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.154</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.155</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.156</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.157</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.158</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.159</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.160</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.161</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.162</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.163</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.164</t>
-  </si>
-  <si>
-    <t>Cam01=192.168.1.165</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.166</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.167</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.168</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.169</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.170</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.171</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.172</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.173</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.174</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.175</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.176</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.177</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.178</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.179</t>
-  </si>
-  <si>
-    <t>Cam02=192.168.1.180</t>
-  </si>
-  <si>
     <t>/camerastreamURL</t>
   </si>
   <si>
-    <t>DSP=192.168.1.181</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.182</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.183</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.184</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.185</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.186</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.187</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.188</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.189</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.190</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.191</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.192</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.193</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.194</t>
-  </si>
-  <si>
-    <t>DSP=192.168.1.195</t>
-  </si>
-  <si>
     <t>Group A</t>
   </si>
   <si>
@@ -318,13 +139,226 @@
     <t>Group C</t>
   </si>
   <si>
-    <t>Cam01 Presets</t>
-  </si>
-  <si>
-    <t>Cam02 Presets</t>
-  </si>
-  <si>
-    <t>UID</t>
+    <t>// UID</t>
+  </si>
+  <si>
+    <t>roomName</t>
+  </si>
+  <si>
+    <t>friendlyName</t>
+  </si>
+  <si>
+    <t>groupName</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>processorIP</t>
+  </si>
+  <si>
+    <t>dspIP</t>
+  </si>
+  <si>
+    <t>camIP[0]</t>
+  </si>
+  <si>
+    <t>camIP[1]</t>
+  </si>
+  <si>
+    <t>camURL[0]</t>
+  </si>
+  <si>
+    <t>camURL[1]</t>
+  </si>
+  <si>
+    <t>camPresets[0]</t>
+  </si>
+  <si>
+    <t>camPresets[1]</t>
+  </si>
+  <si>
+    <t>192.168.1.201</t>
+  </si>
+  <si>
+    <t>192.168.1.202</t>
+  </si>
+  <si>
+    <t>192.168.1.203</t>
+  </si>
+  <si>
+    <t>192.168.1.204</t>
+  </si>
+  <si>
+    <t>192.168.1.205</t>
+  </si>
+  <si>
+    <t>192.168.1.206</t>
+  </si>
+  <si>
+    <t>192.168.1.207</t>
+  </si>
+  <si>
+    <t>192.168.1.208</t>
+  </si>
+  <si>
+    <t>192.168.1.209</t>
+  </si>
+  <si>
+    <t>192.168.1.210</t>
+  </si>
+  <si>
+    <t>192.168.1.211</t>
+  </si>
+  <si>
+    <t>192.168.1.212</t>
+  </si>
+  <si>
+    <t>192.168.1.213</t>
+  </si>
+  <si>
+    <t>192.168.1.214</t>
+  </si>
+  <si>
+    <t>192.168.1.215</t>
+  </si>
+  <si>
+    <t>192.168.1.181</t>
+  </si>
+  <si>
+    <t>192.168.1.182</t>
+  </si>
+  <si>
+    <t>192.168.1.183</t>
+  </si>
+  <si>
+    <t>192.168.1.184</t>
+  </si>
+  <si>
+    <t>192.168.1.185</t>
+  </si>
+  <si>
+    <t>192.168.1.186</t>
+  </si>
+  <si>
+    <t>192.168.1.187</t>
+  </si>
+  <si>
+    <t>192.168.1.188</t>
+  </si>
+  <si>
+    <t>192.168.1.189</t>
+  </si>
+  <si>
+    <t>192.168.1.190</t>
+  </si>
+  <si>
+    <t>192.168.1.191</t>
+  </si>
+  <si>
+    <t>192.168.1.192</t>
+  </si>
+  <si>
+    <t>192.168.1.193</t>
+  </si>
+  <si>
+    <t>192.168.1.194</t>
+  </si>
+  <si>
+    <t>192.168.1.195</t>
+  </si>
+  <si>
+    <t>192.168.1.151</t>
+  </si>
+  <si>
+    <t>192.168.1.152</t>
+  </si>
+  <si>
+    <t>192.168.1.153</t>
+  </si>
+  <si>
+    <t>192.168.1.154</t>
+  </si>
+  <si>
+    <t>192.168.1.155</t>
+  </si>
+  <si>
+    <t>192.168.1.156</t>
+  </si>
+  <si>
+    <t>192.168.1.157</t>
+  </si>
+  <si>
+    <t>192.168.1.158</t>
+  </si>
+  <si>
+    <t>192.168.1.159</t>
+  </si>
+  <si>
+    <t>192.168.1.160</t>
+  </si>
+  <si>
+    <t>192.168.1.161</t>
+  </si>
+  <si>
+    <t>192.168.1.162</t>
+  </si>
+  <si>
+    <t>192.168.1.163</t>
+  </si>
+  <si>
+    <t>192.168.1.164</t>
+  </si>
+  <si>
+    <t>192.168.1.165</t>
+  </si>
+  <si>
+    <t>192.168.1.166</t>
+  </si>
+  <si>
+    <t>192.168.1.167</t>
+  </si>
+  <si>
+    <t>192.168.1.168</t>
+  </si>
+  <si>
+    <t>192.168.1.169</t>
+  </si>
+  <si>
+    <t>192.168.1.170</t>
+  </si>
+  <si>
+    <t>192.168.1.171</t>
+  </si>
+  <si>
+    <t>192.168.1.172</t>
+  </si>
+  <si>
+    <t>192.168.1.173</t>
+  </si>
+  <si>
+    <t>192.168.1.174</t>
+  </si>
+  <si>
+    <t>192.168.1.175</t>
+  </si>
+  <si>
+    <t>192.168.1.176</t>
+  </si>
+  <si>
+    <t>192.168.1.177</t>
+  </si>
+  <si>
+    <t>192.168.1.178</t>
+  </si>
+  <si>
+    <t>192.168.1.179</t>
+  </si>
+  <si>
+    <t>192.168.1.180</t>
+  </si>
+  <si>
+    <t>Presets</t>
   </si>
 </sst>
 </file>
@@ -682,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E39DE06-BF46-495A-805D-5AE33355DBB8}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -702,359 +736,400 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" t="s">
-        <v>94</v>
-      </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
         <v>78</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" t="s">
         <v>80</v>
       </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
         <v>81</v>
       </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
         <v>82</v>
       </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
         <v>83</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
         <v>85</v>
       </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
         <v>86</v>
       </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" t="s">
         <v>87</v>
       </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s">
         <v>88</v>
       </c>
-      <c r="H13" t="s">
-        <v>57</v>
-      </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" t="s">
-        <v>58</v>
-      </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" t="s">
-        <v>74</v>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
